--- a/biology/Zoologie/Masanori_Hata/Masanori_Hata.xlsx
+++ b/biology/Zoologie/Masanori_Hata/Masanori_Hata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Masanori Hata (畑正憲, Hata Masanori?) est un acteur, scénariste et réalisateur japonais né le 17 avril 1935 à Fukuoka (île de Kyūshū)[1] et mort le 5 avril 2023 à Nakashibetsu (île d'Hokkaidō)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Masanori Hata (畑正憲, Hata Masanori?) est un acteur, scénariste et réalisateur japonais né le 17 avril 1935 à Fukuoka (île de Kyūshū) et mort le 5 avril 2023 à Nakashibetsu (île d'Hokkaidō).
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,14 +553,87 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Films
-Love Com (2006) (acteur)
+          <t>Films</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Love Com (2006) (acteur)
 Minami e hashire, umi no michi o! (1986) (acteur)
-Les Aventures de Chatran, (Koneko monogatari) (1986) (réalisateur et scénariste)
-Courts métrages
-Bus Panic!!! (2001) (acteur)
-Séries TV
-Smap×Smap (2006) (acteur)
+Les Aventures de Chatran, (Koneko monogatari) (1986) (réalisateur et scénariste)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Masanori_Hata</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Masanori_Hata</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Courts métrages</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bus Panic!!! (2001) (acteur)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Masanori_Hata</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Masanori_Hata</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Séries TV</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Smap×Smap (2006) (acteur)
 Minasan no okage desu (1988) (acteur)</t>
         </is>
       </c>
